--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_37_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_37_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.043398214649688, 3.4967389476740705]</t>
+          <t>[3.0451281428335295, 3.495009019490229]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[-0.12789733087005262, 0.12174655890555242]</t>
+          <t>[-0.1278356940792471, 0.12168492211474691]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.9606417494133981</v>
+        <v>0.9606223211193183</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9606417494133981</v>
+        <v>0.9606223211193183</v>
       </c>
       <c r="W2" t="n">
         <v>9.965705705705894</v>
